--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="270">
   <si>
     <t>project</t>
   </si>
@@ -917,10 +917,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G278"/>
+  <dimension ref="A1:G284"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A252" view="normal" windowProtection="false" workbookViewId="0" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100">
-      <selection activeCell="D274" activeCellId="0" pane="topLeft" sqref="D274:D278"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A256" view="normal" windowProtection="false" workbookViewId="0" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100">
+      <selection activeCell="B282" activeCellId="0" pane="topLeft" sqref="B282"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -7042,6 +7042,51 @@
         <v>48.3093192649145</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="281">
+      <c r="B281" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C281" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D281" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="282">
+      <c r="A282" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B282" s="0" t="n">
+        <v>1504</v>
+      </c>
+      <c r="C282" s="0" t="n">
+        <v>1603</v>
+      </c>
+      <c r="D282" s="0" t="n">
+        <v>3230</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="283">
+      <c r="A283" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B283" s="0" t="n">
+        <v>30145</v>
+      </c>
+      <c r="C283" s="0" t="n">
+        <v>99580</v>
+      </c>
+      <c r="D283" s="0" t="n">
+        <v>121239</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="284">
+      <c r="B284" s="0" t="n">
+        <f aca="false">SUM(B282:D283)</f>
+        <v>257301</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
